--- a/data/trans_orig/P29A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>417109</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>388936</v>
+        <v>393770</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>439733</v>
+        <v>444660</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6078439629616971</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5667890671943748</v>
+        <v>0.573833201464092</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6408140814026573</v>
+        <v>0.6479944505370213</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>164</v>
@@ -765,19 +765,19 @@
         <v>162430</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>139102</v>
+        <v>143333</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>184389</v>
+        <v>185644</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2366494195395147</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2026618810271865</v>
+        <v>0.2088269910144083</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2686431510235922</v>
+        <v>0.2704717397507775</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>572</v>
@@ -786,19 +786,19 @@
         <v>579539</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>541485</v>
+        <v>542932</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>613879</v>
+        <v>615117</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4222247673095055</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3945006345968483</v>
+        <v>0.3955551203881995</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4472439574485144</v>
+        <v>0.4481456077350122</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>269101</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>246477</v>
+        <v>241550</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>297274</v>
+        <v>292440</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3921560370383029</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3591859185973427</v>
+        <v>0.3520055494629786</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.433210932805625</v>
+        <v>0.426166798535908</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>530</v>
@@ -836,19 +836,19 @@
         <v>523943</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>501984</v>
+        <v>500729</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>547271</v>
+        <v>543040</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7633505804604853</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7313568489764074</v>
+        <v>0.7295282602492227</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7973381189728134</v>
+        <v>0.7911730089855918</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>798</v>
@@ -857,19 +857,19 @@
         <v>793044</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>758704</v>
+        <v>757466</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>831098</v>
+        <v>829651</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5777752326904945</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5527560425514856</v>
+        <v>0.5518543922649879</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6054993654031517</v>
+        <v>0.6044448796118005</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>555693</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>521249</v>
+        <v>523835</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>586153</v>
+        <v>588388</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5855131081664868</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5492210533280187</v>
+        <v>0.5519451585214413</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.617607426665073</v>
+        <v>0.6199622267035712</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>236</v>
@@ -982,19 +982,19 @@
         <v>250453</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>224215</v>
+        <v>223105</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>278658</v>
+        <v>281128</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2606739237333753</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2333647530721147</v>
+        <v>0.2322100127282479</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2900299439499717</v>
+        <v>0.2926001325455311</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>755</v>
@@ -1003,19 +1003,19 @@
         <v>806146</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>763482</v>
+        <v>757333</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>851123</v>
+        <v>850837</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4220967163579301</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3997583250080022</v>
+        <v>0.3965385979262966</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4456469505060298</v>
+        <v>0.4454971593545608</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>393377</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>362917</v>
+        <v>360682</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>427821</v>
+        <v>425235</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4144868918335132</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.382392573334927</v>
+        <v>0.3800377732964288</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4507789466719812</v>
+        <v>0.4480548414785587</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>665</v>
@@ -1053,19 +1053,19 @@
         <v>710338</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>682133</v>
+        <v>679663</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>736576</v>
+        <v>737686</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7393260762666247</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7099700560500291</v>
+        <v>0.707399867454469</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7666352469278854</v>
+        <v>0.7677899872717523</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1030</v>
@@ -1074,19 +1074,19 @@
         <v>1103714</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1058737</v>
+        <v>1059023</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1146378</v>
+        <v>1152527</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5779032836420699</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5543530494939701</v>
+        <v>0.5545028406454393</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6002416749919977</v>
+        <v>0.6034614020737032</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>303976</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>277650</v>
+        <v>277770</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>330613</v>
+        <v>331268</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4560335026552328</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4165384303799106</v>
+        <v>0.4167177883502878</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4959937162437643</v>
+        <v>0.4969767738054914</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>127</v>
@@ -1199,19 +1199,19 @@
         <v>121855</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>102201</v>
+        <v>105013</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>140862</v>
+        <v>145327</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1792975195860543</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1503784648865327</v>
+        <v>0.1545172006559098</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2072648066959018</v>
+        <v>0.2138348883244268</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>419</v>
@@ -1220,19 +1220,19 @@
         <v>425831</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>391159</v>
+        <v>391068</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>460575</v>
+        <v>459795</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3163235770649409</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2905673007222786</v>
+        <v>0.2905000896479109</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3421325439264714</v>
+        <v>0.3415530542959242</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>362590</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>335953</v>
+        <v>335298</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>388916</v>
+        <v>388796</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5439664973447672</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5040062837562357</v>
+        <v>0.5030232261945086</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5834615696200894</v>
+        <v>0.5832822116497123</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>565</v>
@@ -1270,19 +1270,19 @@
         <v>557767</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>538760</v>
+        <v>534295</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>577421</v>
+        <v>574609</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8207024804139458</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7927351933040977</v>
+        <v>0.7861651116755731</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8496215351134672</v>
+        <v>0.8454827993440903</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>902</v>
@@ -1291,19 +1291,19 @@
         <v>920358</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>885614</v>
+        <v>886394</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>955030</v>
+        <v>955121</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6836764229350591</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6578674560735285</v>
+        <v>0.6584469457040758</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7094326992777209</v>
+        <v>0.709499910352089</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>499317</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>467391</v>
+        <v>467594</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>528954</v>
+        <v>529361</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5364630318539606</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5021627529229491</v>
+        <v>0.5023808505108581</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5683052360189236</v>
+        <v>0.5687421774625805</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>278</v>
@@ -1416,19 +1416,19 @@
         <v>289118</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>259219</v>
+        <v>261628</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>317142</v>
+        <v>319107</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2797482150463483</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2508182983091103</v>
+        <v>0.253149061346981</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3068642366070398</v>
+        <v>0.3087653200058659</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>804</v>
@@ -1437,19 +1437,19 @@
         <v>788435</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>746895</v>
+        <v>747650</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>831668</v>
+        <v>835601</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4013921387139315</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3802445859184519</v>
+        <v>0.3806287623317551</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4234024629920293</v>
+        <v>0.4254046928114237</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>431440</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>401803</v>
+        <v>401396</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>463366</v>
+        <v>463163</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4635369681460395</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4316947639810764</v>
+        <v>0.4312578225374195</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4978372470770509</v>
+        <v>0.4976191494891419</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>714</v>
@@ -1487,19 +1487,19 @@
         <v>744375</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>716351</v>
+        <v>714386</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>774274</v>
+        <v>771865</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7202517849536517</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6931357633929601</v>
+        <v>0.6912346799941341</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7491817016908897</v>
+        <v>0.7468509386530191</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1171</v>
@@ -1508,19 +1508,19 @@
         <v>1175815</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1132582</v>
+        <v>1128649</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1217355</v>
+        <v>1216600</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5986078612860686</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5765975370079703</v>
+        <v>0.5745953071885763</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6197554140815479</v>
+        <v>0.6193712376682448</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1776095</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1718666</v>
+        <v>1717318</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1833147</v>
+        <v>1832464</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.549431724284705</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5316664268579521</v>
+        <v>0.5312491237462529</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5670807539612612</v>
+        <v>0.5668694940074696</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>805</v>
@@ -1633,19 +1633,19 @@
         <v>823855</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>773835</v>
+        <v>776109</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>874933</v>
+        <v>875981</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2451746687844678</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2302887827110085</v>
+        <v>0.2309656674307581</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2603749789322897</v>
+        <v>0.2606870401159073</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2550</v>
@@ -1654,19 +1654,19 @@
         <v>2599950</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2530457</v>
+        <v>2511439</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2688011</v>
+        <v>2677054</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3943571309997094</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3838165261303975</v>
+        <v>0.3809318527772326</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4077141257472668</v>
+        <v>0.4060521204997483</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1456508</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1399456</v>
+        <v>1400139</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1513937</v>
+        <v>1515285</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.450568275715295</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4329192460387386</v>
+        <v>0.4331305059925304</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4683335731420479</v>
+        <v>0.468750876253747</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2474</v>
@@ -1704,19 +1704,19 @@
         <v>2536424</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2485346</v>
+        <v>2484298</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2586444</v>
+        <v>2584170</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7548253312155322</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7396250210677104</v>
+        <v>0.7393129598840927</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7697112172889916</v>
+        <v>0.7690343325692418</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3901</v>
@@ -1725,19 +1725,19 @@
         <v>3992932</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3904871</v>
+        <v>3915828</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4062425</v>
+        <v>4081443</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6056428690002905</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5922858742527332</v>
+        <v>0.5939478795002517</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6161834738696025</v>
+        <v>0.6190681472227674</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>382254</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>353529</v>
+        <v>356827</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>406336</v>
+        <v>407928</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5712183272758778</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5282938448782639</v>
+        <v>0.5332222032979217</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6072049319992449</v>
+        <v>0.6095837653109643</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>138</v>
@@ -2090,19 +2090,19 @@
         <v>148363</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>126135</v>
+        <v>124295</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>171893</v>
+        <v>171577</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2146569084067247</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1824968982349953</v>
+        <v>0.1798344089836608</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.248701853230738</v>
+        <v>0.2482448756586687</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>507</v>
@@ -2111,19 +2111,19 @@
         <v>530617</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>493042</v>
+        <v>493456</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>568146</v>
+        <v>565414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3900581843576603</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3624367418833436</v>
+        <v>0.362741333425271</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4176458121694311</v>
+        <v>0.4156376832819446</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>286937</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>262855</v>
+        <v>261263</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>315662</v>
+        <v>312364</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4287816727241222</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3927950680007551</v>
+        <v>0.3904162346890359</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4717061551217361</v>
+        <v>0.4667777967020783</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>506</v>
@@ -2161,19 +2161,19 @@
         <v>542799</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>519269</v>
+        <v>519585</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>565027</v>
+        <v>566867</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7853430915932753</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7512981467692619</v>
+        <v>0.7517551243413313</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8175031017650045</v>
+        <v>0.8201655910163391</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>781</v>
@@ -2182,19 +2182,19 @@
         <v>829736</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>792207</v>
+        <v>794939</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>867311</v>
+        <v>866897</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6099418156423397</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5823541878305688</v>
+        <v>0.5843623167180554</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6375632581166564</v>
+        <v>0.6372586665747287</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>538909</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>506082</v>
+        <v>506539</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>569245</v>
+        <v>569258</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.55281238859195</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5191385659046871</v>
+        <v>0.5196081635855009</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5839319001322301</v>
+        <v>0.5839443482600746</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>227</v>
@@ -2307,19 +2307,19 @@
         <v>247323</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>222840</v>
+        <v>218970</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>274572</v>
+        <v>275504</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2455732812014826</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2212632125413969</v>
+        <v>0.2174210758541197</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2726295056973126</v>
+        <v>0.2735550242085653</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>722</v>
@@ -2328,19 +2328,19 @@
         <v>786232</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>738786</v>
+        <v>742119</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>832858</v>
+        <v>828004</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3966911845732495</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3727525743633029</v>
+        <v>0.3744342935097842</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4202164495439806</v>
+        <v>0.4177672580551204</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>435940</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>405604</v>
+        <v>405591</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>468767</v>
+        <v>468310</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4471876114080499</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4160680998677699</v>
+        <v>0.4160556517399255</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4808614340953129</v>
+        <v>0.4803918364144992</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>691</v>
@@ -2378,19 +2378,19 @@
         <v>759802</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>732553</v>
+        <v>731621</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>784285</v>
+        <v>788155</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7544267187985174</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7273704943026874</v>
+        <v>0.7264449757914347</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7787367874586032</v>
+        <v>0.7825789241458803</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1090</v>
@@ -2399,19 +2399,19 @@
         <v>1195743</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1149117</v>
+        <v>1153971</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1243189</v>
+        <v>1239856</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6033088154267505</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5797835504560194</v>
+        <v>0.5822327419448796</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6272474256366971</v>
+        <v>0.6255657064902158</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>402392</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>374460</v>
+        <v>373452</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>430032</v>
+        <v>427394</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5602707702479793</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5213800820639578</v>
+        <v>0.5199767403458718</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5987567092516419</v>
+        <v>0.595083730985295</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>157</v>
@@ -2524,19 +2524,19 @@
         <v>178894</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>154354</v>
+        <v>155326</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>204969</v>
+        <v>206797</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.236480179043094</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.204040632599302</v>
+        <v>0.2053253999368685</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2709476551228476</v>
+        <v>0.2733650148109346</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>526</v>
@@ -2545,19 +2545,19 @@
         <v>581286</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>546176</v>
+        <v>542256</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>620898</v>
+        <v>621603</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3941731636029335</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3703645718282267</v>
+        <v>0.367706792212323</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.421034025917936</v>
+        <v>0.4215122796104231</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>315817</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>288177</v>
+        <v>290815</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>343749</v>
+        <v>344757</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4397292297520207</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.401243290748358</v>
+        <v>0.404916269014705</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.478619917936042</v>
+        <v>0.4800232596541278</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>530</v>
@@ -2595,19 +2595,19 @@
         <v>577594</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>551519</v>
+        <v>549691</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>602134</v>
+        <v>601162</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.763519820956906</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7290523448771523</v>
+        <v>0.7266349851890657</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7959593674006981</v>
+        <v>0.794674600063132</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>815</v>
@@ -2616,19 +2616,19 @@
         <v>893411</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>853799</v>
+        <v>853094</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>928521</v>
+        <v>932441</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6058268363970666</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.578965974082064</v>
+        <v>0.578487720389577</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6296354281717734</v>
+        <v>0.6322932077876771</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>514273</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>483679</v>
+        <v>482318</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>547518</v>
+        <v>546170</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5636946231289138</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5301605939196933</v>
+        <v>0.5286680784606291</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6001337423093585</v>
+        <v>0.5986562919669003</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>300</v>
@@ -2741,19 +2741,19 @@
         <v>320324</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>288756</v>
+        <v>291709</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>350837</v>
+        <v>350873</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3105820777566985</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2799744382273353</v>
+        <v>0.2828371105231909</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3401674895668994</v>
+        <v>0.3402018532321606</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>797</v>
@@ -2762,19 +2762,19 @@
         <v>834597</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>788283</v>
+        <v>792702</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>878722</v>
+        <v>879546</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4293875313200463</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4055598452245218</v>
+        <v>0.407832889332586</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4520893281782319</v>
+        <v>0.4525132645482494</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>398053</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>364808</v>
+        <v>366156</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>428647</v>
+        <v>430008</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4363053768710862</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3998662576906417</v>
+        <v>0.4013437080330995</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4698394060803067</v>
+        <v>0.4713319215393707</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>684</v>
@@ -2812,19 +2812,19 @@
         <v>711042</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>680529</v>
+        <v>680493</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>742610</v>
+        <v>739657</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6894179222433015</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6598325104331005</v>
+        <v>0.6597981467678394</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7200255617726647</v>
+        <v>0.717162889476809</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1063</v>
@@ -2833,19 +2833,19 @@
         <v>1109095</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1064970</v>
+        <v>1064146</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1155409</v>
+        <v>1150990</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5706124686799537</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5479106718217682</v>
+        <v>0.547486735451751</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5944401547754783</v>
+        <v>0.5921671106674141</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1837828</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1774135</v>
+        <v>1771575</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1898444</v>
+        <v>1893930</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.56124154546533</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5417908981698415</v>
+        <v>0.5410088729545064</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5797526621171611</v>
+        <v>0.5783740792954402</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>822</v>
@@ -2958,19 +2958,19 @@
         <v>894904</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>843060</v>
+        <v>842200</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>947068</v>
+        <v>946304</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2567033003525215</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.241832000728409</v>
+        <v>0.2415850684756998</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2716665644391829</v>
+        <v>0.2714474600550966</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2552</v>
@@ -2979,19 +2979,19 @@
         <v>2732732</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2655018</v>
+        <v>2653261</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2817787</v>
+        <v>2814858</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4042074143537748</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3927125951333919</v>
+        <v>0.3924526499848574</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.416788199352423</v>
+        <v>0.4163550058203425</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1436748</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1376132</v>
+        <v>1380646</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1500441</v>
+        <v>1503001</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4387584545346701</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4202473378828389</v>
+        <v>0.4216259207045598</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4582091018301585</v>
+        <v>0.4589911270454936</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2411</v>
@@ -3029,19 +3029,19 @@
         <v>2591237</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2539073</v>
+        <v>2539837</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2643081</v>
+        <v>2643941</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7432966996474785</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7283334355608171</v>
+        <v>0.7285525399449032</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.758167999271591</v>
+        <v>0.7584149315243002</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3749</v>
@@ -3050,19 +3050,19 @@
         <v>4027984</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3942929</v>
+        <v>3945858</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4105698</v>
+        <v>4107455</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5957925856462252</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5832118006475768</v>
+        <v>0.5836449941796572</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6072874048666079</v>
+        <v>0.6075473500151426</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>390615</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>365690</v>
+        <v>367043</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>416125</v>
+        <v>415808</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6074688213861464</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5687068946974416</v>
+        <v>0.5708095245554387</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6471407126231586</v>
+        <v>0.6466475563635662</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>181</v>
@@ -3415,19 +3415,19 @@
         <v>174631</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>152102</v>
+        <v>153723</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>197750</v>
+        <v>196411</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2613768573371736</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2276562930169792</v>
+        <v>0.2300825882115066</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2959803724860255</v>
+        <v>0.2939753465124958</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>554</v>
@@ -3436,19 +3436,19 @@
         <v>565246</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>530729</v>
+        <v>527631</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>598875</v>
+        <v>601332</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4311103169065228</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4047843981598042</v>
+        <v>0.4024210922803513</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4567584831213972</v>
+        <v>0.4586323441950473</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>252406</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>226896</v>
+        <v>227213</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>277331</v>
+        <v>275978</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3925311786138536</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3528592873768414</v>
+        <v>0.3533524436364339</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4312931053025584</v>
+        <v>0.4291904754445613</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>480</v>
@@ -3486,19 +3486,19 @@
         <v>493489</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>470370</v>
+        <v>471709</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>516018</v>
+        <v>514397</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7386231426628264</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7040196275139746</v>
+        <v>0.7060246534875041</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7723437069830208</v>
+        <v>0.7699174117884935</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>728</v>
@@ -3507,19 +3507,19 @@
         <v>745895</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>712266</v>
+        <v>709809</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>780412</v>
+        <v>783510</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5688896830934772</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5432415168786028</v>
+        <v>0.5413676558049525</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5952156018401957</v>
+        <v>0.5975789077196486</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>536326</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>503307</v>
+        <v>505407</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>569743</v>
+        <v>570328</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5410602204762536</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5077491808765237</v>
+        <v>0.5098673593849639</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5747721274605904</v>
+        <v>0.5753623182862491</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>280</v>
@@ -3632,19 +3632,19 @@
         <v>293422</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>264854</v>
+        <v>266493</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>320723</v>
+        <v>326480</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2868810078593338</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2589501492964623</v>
+        <v>0.2605522282440096</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3135731545383187</v>
+        <v>0.3192023518821554</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>776</v>
@@ -3653,19 +3653,19 @@
         <v>829748</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>784612</v>
+        <v>782995</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>876483</v>
+        <v>873266</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4119798450135837</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.389569010621654</v>
+        <v>0.3887660326416031</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4351842071566286</v>
+        <v>0.4335866234381028</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>454925</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>421508</v>
+        <v>420923</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>487944</v>
+        <v>485844</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4589397795237464</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4252278725394097</v>
+        <v>0.4246376817137509</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4922508191234763</v>
+        <v>0.4901326406150361</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>678</v>
@@ -3703,19 +3703,19 @@
         <v>729378</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>702077</v>
+        <v>696320</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>757946</v>
+        <v>756307</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7131189921406662</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6864268454616818</v>
+        <v>0.6807976481178447</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7410498507035379</v>
+        <v>0.7394477717559905</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1105</v>
@@ -3724,19 +3724,19 @@
         <v>1184303</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1137568</v>
+        <v>1140785</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1229439</v>
+        <v>1231056</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5880201549864164</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5648157928433715</v>
+        <v>0.5664133765618973</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6104309893783459</v>
+        <v>0.6112339673583971</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>405380</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>375398</v>
+        <v>376350</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>430495</v>
+        <v>432873</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.546057326788367</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5056705190758581</v>
+        <v>0.506953110469502</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5798871558903315</v>
+        <v>0.5830901591910381</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>205</v>
@@ -3849,19 +3849,19 @@
         <v>216168</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>189449</v>
+        <v>191514</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>240316</v>
+        <v>241472</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2802076849728906</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2455727339000342</v>
+        <v>0.2482496060648508</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3115102196199496</v>
+        <v>0.3130084613412815</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>573</v>
@@ -3870,19 +3870,19 @@
         <v>621548</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>584809</v>
+        <v>580647</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>666196</v>
+        <v>662879</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4105791507855632</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3863104547477016</v>
+        <v>0.3835610531672956</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4400728847951794</v>
+        <v>0.4378816560088817</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>336997</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>311882</v>
+        <v>309504</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>366979</v>
+        <v>366027</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.453942673211633</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4201128441096686</v>
+        <v>0.416909840808962</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4943294809241419</v>
+        <v>0.4930468895304982</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>519</v>
@@ -3920,19 +3920,19 @@
         <v>555288</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>531140</v>
+        <v>529984</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>582007</v>
+        <v>579942</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7197923150271095</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6884897803800505</v>
+        <v>0.6869915386587186</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7544272660999658</v>
+        <v>0.7517503939351492</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>832</v>
@@ -3941,19 +3941,19 @@
         <v>892284</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>847636</v>
+        <v>850953</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>929023</v>
+        <v>933185</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5894208492144368</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5599271152048205</v>
+        <v>0.5621183439911183</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6136895452522984</v>
+        <v>0.6164389468327045</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>545684</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>516855</v>
+        <v>516955</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>577077</v>
+        <v>576586</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5990625346914844</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5674130740840004</v>
+        <v>0.5675232280455338</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6335265658053812</v>
+        <v>0.6329872583058999</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>361</v>
@@ -4066,19 +4066,19 @@
         <v>387766</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>357229</v>
+        <v>354450</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>420990</v>
+        <v>422534</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3780537573630494</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3482822410603422</v>
+        <v>0.3455723782380097</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4104465288465071</v>
+        <v>0.4119518287930912</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>900</v>
@@ -4087,19 +4087,19 @@
         <v>933450</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>889303</v>
+        <v>885059</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>978142</v>
+        <v>977947</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4820079791128729</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4592118345803847</v>
+        <v>0.4570202157895493</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5050855930201014</v>
+        <v>0.5049850618470847</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>365213</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>333820</v>
+        <v>334311</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>394042</v>
+        <v>393942</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4009374653085156</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3664734341946187</v>
+        <v>0.3670127416941001</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4325869259159995</v>
+        <v>0.4324767719544662</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>583</v>
@@ -4137,19 +4137,19 @@
         <v>637923</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>604699</v>
+        <v>603155</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>668460</v>
+        <v>671239</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6219462426369506</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.589553471153493</v>
+        <v>0.5880481712069087</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6517177589396578</v>
+        <v>0.6544276217619898</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>949</v>
@@ -4158,19 +4158,19 @@
         <v>1003136</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>958444</v>
+        <v>958639</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1047283</v>
+        <v>1051527</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5179920208871271</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4949144069798987</v>
+        <v>0.4950149381529151</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5407881654196153</v>
+        <v>0.5429797842104503</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1878006</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1821687</v>
+        <v>1815089</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1938203</v>
+        <v>1936022</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5712487024919554</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5541174959153125</v>
+        <v>0.5521106653349013</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5895592624350849</v>
+        <v>0.588895667768373</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1027</v>
@@ -4283,19 +4283,19 @@
         <v>1071986</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1015186</v>
+        <v>1016326</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1126891</v>
+        <v>1129597</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3073298513986732</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2910457329842283</v>
+        <v>0.2913726335161162</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3230707321412163</v>
+        <v>0.3238464347878498</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2803</v>
@@ -4304,19 +4304,19 @@
         <v>2949993</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2863798</v>
+        <v>2862290</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3027170</v>
+        <v>3031437</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4353840613056019</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.422662718392703</v>
+        <v>0.4224402528644248</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4467745291122596</v>
+        <v>0.4474043556272251</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1409540</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1349343</v>
+        <v>1351524</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1465859</v>
+        <v>1472457</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4287512975080446</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4104407375649151</v>
+        <v>0.4111043322316271</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4458825040846877</v>
+        <v>0.4478893346650988</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2260</v>
@@ -4354,19 +4354,19 @@
         <v>2416078</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2361173</v>
+        <v>2358467</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2472878</v>
+        <v>2471738</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6926701486013268</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6769292678587836</v>
+        <v>0.6761535652121501</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7089542670157717</v>
+        <v>0.7086273664838838</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3614</v>
@@ -4375,19 +4375,19 @@
         <v>3825617</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3748440</v>
+        <v>3744173</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3911812</v>
+        <v>3913320</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5646159386943982</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5532254708877404</v>
+        <v>0.5525956443727746</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.577337281607297</v>
+        <v>0.5775597471355743</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>353514</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>323918</v>
+        <v>328098</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>382106</v>
+        <v>384415</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.513492902776276</v>
+        <v>0.5134929027762762</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4705031449060067</v>
+        <v>0.4765749780478507</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5550235518168889</v>
+        <v>0.5583771804864178</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>249</v>
@@ -4740,19 +4740,19 @@
         <v>172651</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>153683</v>
+        <v>154058</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>195010</v>
+        <v>193112</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2358606829987364</v>
+        <v>0.2358606829987365</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2099489131747823</v>
+        <v>0.2104611256212533</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2664062262027581</v>
+        <v>0.263813120997375</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>605</v>
@@ -4761,19 +4761,19 @@
         <v>526165</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>492401</v>
+        <v>492293</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>564142</v>
+        <v>565215</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3704204794841358</v>
+        <v>0.3704204794841359</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3466506330193098</v>
+        <v>0.3465746934551539</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3971562988915617</v>
+        <v>0.3979118241608239</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>334936</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>306344</v>
+        <v>304035</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>364532</v>
+        <v>360352</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.486507097223724</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4449764481831111</v>
+        <v>0.4416228195135823</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5294968550939931</v>
+        <v>0.5234250219521496</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>988</v>
@@ -4811,19 +4811,19 @@
         <v>559352</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>536993</v>
+        <v>538891</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>578320</v>
+        <v>577945</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7641393170012637</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7335937737972421</v>
+        <v>0.7361868790026248</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7900510868252176</v>
+        <v>0.7895388743787467</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1359</v>
@@ -4832,19 +4832,19 @@
         <v>894288</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>856311</v>
+        <v>855238</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>928052</v>
+        <v>928160</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6295795205158641</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6028437011084383</v>
+        <v>0.6020881758391761</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6533493669806901</v>
+        <v>0.6534253065448462</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>501905</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>463210</v>
+        <v>466790</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>538479</v>
+        <v>540967</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4790387944900484</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4421069451477284</v>
+        <v>0.4455239283941346</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5139468750488833</v>
+        <v>0.5163215914412952</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>288</v>
@@ -4957,19 +4957,19 @@
         <v>223193</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>198721</v>
+        <v>199354</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>247502</v>
+        <v>247711</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2088811384102838</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1859778435102421</v>
+        <v>0.1865703165181793</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2316307291441217</v>
+        <v>0.2318261483032061</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>732</v>
@@ -4978,19 +4978,19 @@
         <v>725098</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>679767</v>
+        <v>676172</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>771617</v>
+        <v>774766</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3426332255145091</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3212126757787728</v>
+        <v>0.31951380882591</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3646147714423659</v>
+        <v>0.3661027790858017</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>545828</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>509254</v>
+        <v>506766</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>584523</v>
+        <v>580943</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5209612055099515</v>
+        <v>0.5209612055099516</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4860531249511168</v>
+        <v>0.4836784085587048</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5578930548522718</v>
+        <v>0.5544760716058654</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1225</v>
@@ -5028,19 +5028,19 @@
         <v>845326</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>821017</v>
+        <v>820808</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>869798</v>
+        <v>869165</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7911188615897161</v>
+        <v>0.7911188615897163</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7683692708558781</v>
+        <v>0.7681738516967948</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8140221564897576</v>
+        <v>0.8134296834818208</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1744</v>
@@ -5049,19 +5049,19 @@
         <v>1391154</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1344635</v>
+        <v>1341486</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1436485</v>
+        <v>1440080</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.657366774485491</v>
+        <v>0.6573667744854912</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.635385228557634</v>
+        <v>0.6338972209141979</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6787873242212273</v>
+        <v>0.6804861911740895</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>361328</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>327387</v>
+        <v>328066</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>391785</v>
+        <v>397429</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4518654794780654</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4094197924268564</v>
+        <v>0.4102692444260275</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4899530603419632</v>
+        <v>0.4970113912197671</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>248</v>
@@ -5174,19 +5174,19 @@
         <v>201134</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>177941</v>
+        <v>177059</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>226322</v>
+        <v>224493</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2484244408521717</v>
+        <v>0.2484244408521716</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2197781772646896</v>
+        <v>0.2186887634402374</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2795350403555164</v>
+        <v>0.2772758005823234</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>552</v>
@@ -5195,19 +5195,19 @@
         <v>562462</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>519435</v>
+        <v>520507</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>601915</v>
+        <v>601670</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3495128185740486</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3227757619899222</v>
+        <v>0.3234416310008023</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.374028870110464</v>
+        <v>0.3738766030230721</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>438309</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>407852</v>
+        <v>402208</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>472250</v>
+        <v>471571</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5481345205219347</v>
+        <v>0.5481345205219346</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5100469396580368</v>
+        <v>0.5029886087802331</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5905802075731437</v>
+        <v>0.589730755573973</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>796</v>
@@ -5245,19 +5245,19 @@
         <v>608504</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>583316</v>
+        <v>585145</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>631697</v>
+        <v>632579</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7515755591478285</v>
+        <v>0.7515755591478283</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7204649596444834</v>
+        <v>0.7227241994176764</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7802218227353103</v>
+        <v>0.7813112365597625</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1165</v>
@@ -5266,19 +5266,19 @@
         <v>1046813</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1007360</v>
+        <v>1007605</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1089840</v>
+        <v>1088768</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6504871814259514</v>
+        <v>0.6504871814259513</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6259711298895363</v>
+        <v>0.6261233969769281</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.677224238010078</v>
+        <v>0.6765583689991977</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>465664</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>428709</v>
+        <v>433252</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>495697</v>
+        <v>500224</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4708600869922701</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4334930299863843</v>
+        <v>0.4380858181439948</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5012278605101651</v>
+        <v>0.5058052259387338</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>421</v>
@@ -5391,19 +5391,19 @@
         <v>310671</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>284073</v>
+        <v>285513</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>338982</v>
+        <v>339102</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2784806932005131</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2546385494667991</v>
+        <v>0.2559294097336395</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3038579017927391</v>
+        <v>0.3039652867071719</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>905</v>
@@ -5412,19 +5412,19 @@
         <v>776336</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>736458</v>
+        <v>733738</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>819591</v>
+        <v>816802</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3688827584716037</v>
+        <v>0.3688827584716036</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3499345383100628</v>
+        <v>0.3486421282829704</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.389436032780837</v>
+        <v>0.3881109043028399</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>523301</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>493268</v>
+        <v>488741</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>560256</v>
+        <v>555713</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.52913991300773</v>
+        <v>0.5291399130077299</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4987721394898347</v>
+        <v>0.4941947740612662</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5665069700136154</v>
+        <v>0.5619141818560052</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1136</v>
@@ -5462,19 +5462,19 @@
         <v>804923</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>776612</v>
+        <v>776492</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>831521</v>
+        <v>830081</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7215193067994869</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6961420982072609</v>
+        <v>0.6960347132928282</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7453614505332008</v>
+        <v>0.7440705902663606</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1657</v>
@@ -5483,19 +5483,19 @@
         <v>1328223</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1284968</v>
+        <v>1287757</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1368101</v>
+        <v>1370821</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6311172415283964</v>
+        <v>0.6311172415283963</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6105639672191631</v>
+        <v>0.6118890956971602</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6500654616899373</v>
+        <v>0.6513578717170295</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1682411</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1618351</v>
+        <v>1620061</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1743631</v>
+        <v>1748100</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.477308954453693</v>
+        <v>0.4773089544536929</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4591346901349567</v>
+        <v>0.4596197230485993</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4946772610502415</v>
+        <v>0.495945228327597</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1206</v>
@@ -5608,19 +5608,19 @@
         <v>907649</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>857278</v>
+        <v>857440</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>955803</v>
+        <v>952784</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2436149707299671</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2300951768024301</v>
+        <v>0.2301385217580398</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2565394608114676</v>
+        <v>0.2557292656032618</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2794</v>
@@ -5629,19 +5629,19 @@
         <v>2590061</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2502898</v>
+        <v>2509831</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2671654</v>
+        <v>2674325</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.357223222035976</v>
+        <v>0.3572232220359761</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3452016612806921</v>
+        <v>0.3461578198209461</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.36847657135079</v>
+        <v>0.3688449789425959</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1842374</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1781154</v>
+        <v>1776685</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1906434</v>
+        <v>1904724</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5226910455463071</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5053227389497585</v>
+        <v>0.504054771672403</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5408653098650433</v>
+        <v>0.5403802769514007</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4145</v>
@@ -5679,19 +5679,19 @@
         <v>2818105</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2769951</v>
+        <v>2772970</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2868476</v>
+        <v>2868314</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7563850292700329</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7434605391885325</v>
+        <v>0.7442707343967382</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7699048231975698</v>
+        <v>0.7698614782419601</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5925</v>
@@ -5700,19 +5700,19 @@
         <v>4660478</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4578885</v>
+        <v>4576214</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4747641</v>
+        <v>4740708</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.642776777964024</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6315234286492102</v>
+        <v>0.6311550210574043</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.654798338719308</v>
+        <v>0.653842180179054</v>
       </c>
     </row>
     <row r="18">
